--- a/Data/Data1.xlsx
+++ b/Data/Data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anti-phubber\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0118901-B0B6-4FE5-B63B-320DE13D3D4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB7E1E4-8CD8-46E7-A8DC-712B8B8A6D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{39F9D58E-9C98-4E1B-940D-BB14CCDEC570}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="306">
   <si>
     <t>OFF</t>
   </si>
@@ -1554,11 +1554,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D898FBE-2693-4BAF-A921-0321015E82B7}">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:R158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,7 @@
     <col min="3" max="8" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>293</v>
       </c>
@@ -1605,8 +1605,17 @@
       <c r="N1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>670276</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>670403</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>670530</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>-0.61</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>670658</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>670785</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>670912</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>671040</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>-1.1400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>671167</v>
       </c>
@@ -1942,7 +1951,7 @@
         <v>-1.2300000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>671294</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>-1.2300000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>671422</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>-1.3200000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>671549</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>0.19999999999999973</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>671676</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>-0.79000000000000026</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>671804</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>-0.13000000000000023</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>671931</v>
       </c>
@@ -2194,7 +2203,7 @@
         <v>-0.43000000000000022</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>672058</v>
       </c>
